--- a/src/academic/cost control第一波实验结果.xlsx
+++ b/src/academic/cost control第一波实验结果.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AngelCandices/Documents/icodeu/justcode/src/academic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1048,7 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B2:B12" si="0">0.5*(1+0.5^(1/A3))</f>
+        <f t="shared" ref="B3:B12" si="0">0.5*(1+0.5^(1/A3))</f>
         <v>0.50048828125</v>
       </c>
     </row>
